--- a/biology/Botanique/Saint-georges-saint-émilion_(AOC)/Saint-georges-saint-émilion_(AOC).xlsx
+++ b/biology/Botanique/Saint-georges-saint-émilion_(AOC)/Saint-georges-saint-émilion_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-georges-saint-%C3%A9milion_(AOC)</t>
+          <t>Saint-georges-saint-émilion_(AOC)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le saint-georges-saint-émilion[1] est un vin rouge français d'appellation d'origine contrôlée produit sur le territoire du hameau Saint-Georges-Saint-Émilion, partie de la commune de Montagne. 192 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 9 333 hl.
+Le saint-georges-saint-émilion est un vin rouge français d'appellation d'origine contrôlée produit sur le territoire du hameau Saint-Georges-Saint-Émilion, partie de la commune de Montagne. 192 hectares de superficie plantés en vigne ont été revendiqués en 2005 avec une production de 9 333 hl.
 L'appellation produit exclusivement du vin rouge, et si presque tous les cépages bordelais peuvent y être utilisés (cabernet-sauvignon, cabernet franc, merlot, côt etc.), c'est le merlot qui prédomine nettement.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-georges-saint-%C3%A9milion_(AOC)</t>
+          <t>Saint-georges-saint-émilion_(AOC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,49 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vignoble de Saint-Georges est dans le prolongement nord de Saint-Émilion sur la rive droite de la Barbanne et il est inclus dans le vignoble de Montagne. Avec les vignobles de  Lussac-Saint-Émilion,  Montagne-Saint-Émilion et  Puisseguin-Saint-Émilion, ils forment les satellites du Vignoble de Saint-Émilion.
 Le rendement de base est fixé à 45 hl/ha avec un plafond limite de 20 %. Avant tout enrichissement ou concentration, les moûts doivent contenir au minimum 187 g/l de sucre naturel. Le vin doit présenter après fermentation un degré alcoolique minimum de 11 % vol.
-Les cépages
-Traditionnellement, les vins de Saint-Georges-Saint-Émilion sont des vins d'assemblage de différents cépages, les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saint-georges-saint-émilion_(AOC)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saint-georges-saint-%C3%A9milion_(AOC)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les cépages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, les vins de Saint-Georges-Saint-Émilion sont des vins d'assemblage de différents cépages, les trois principaux étant le merlot, le cabernet franc (ou bouchet) et le cabernet sauvignon.
 La répartition des cépages est la suivante :
 Le merlot- C'est le cépage le plus représenté (plus de 75 % de l'encépagement). C'est un cépage précoce de deuxième époque, il apprécie le caractère frais et humide des sols à texture argileuse. Il mûrit bien et apporte au vin de la couleur, une bonne richesse alcoolique, une bonne complexité ainsi que de la souplesse et de la rondeur en bouche.
 Le cabernet franc - Essentiellement planté dans le Libournais, il représente près de 20 % de l'encépagement de Saint-Émilion. De précocité moyenne, il est plus utilisé sur les sols calcaires ou à texture un peu plus chaudes (sables et graves). Il apporte au vin une finesse aromatique légèrement épicée, une fraîcheur et une structure tanique, conférant au vin une grande aptitude de vieillissement.
@@ -528,49 +577,51 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Saint-georges-saint-%C3%A9milion_(AOC)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saint-georges-saint-émilion_(AOC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Saint-georges-saint-%C3%A9milion_(AOC)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Les châteaux de l'AOC</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Clos Albertus - Saint Georges Saint-Emilion[5].
-Clos du Pavillon Saint-Georges Saint-Georges - Saint-Émilion[6].
-Clos Haut Troquart Saint-Georges - Saint-Émilion[7].
-Château Calon - Saint-Georges-Saint-Emilion[8].
-Château Croix de Thomas Louis Vialard Saint-Georges - Saint-Émilion[9].
-Château Divon - Saint-Georges-Saint-Emilion[10].
-Château Griffe de Cap d'Or Saint-Georges - Saint-Émilion[11].
-Château Haut-Saint-Georges - Saint-Georges-Saint-Emilion[12].
-Château La Croix Chantecaille Saint-Georges - Saint-Émilion[13].
-Château La Croix Saint-Georges Saint-Georges - Saint-Émilion Grand Vin de Bordeaux[14].
-Château Moulin La Bergère - Saint-Georges-Saint-Emilion[15].
-Château Puy St-Georges - Saint-Georges-Saint-Emilion[16].
-Château Saint-André Corbin Saint-Georges - Saint-Émilion[17].
-Château Saint-Georges - Saint-Georges-Saint-Emilion[13],[18].
-Château Tour du Pas Saint-Georges - Saint-Georges-Saint-Emilion[19].
-La Fleur St. Georges - Saint-Georges-Saint-Émilion[20].
-Château Terre Bleue - Saint-Georges-Saint-Emilion[21].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Clos Albertus - Saint Georges Saint-Emilion.
+Clos du Pavillon Saint-Georges Saint-Georges - Saint-Émilion.
+Clos Haut Troquart Saint-Georges - Saint-Émilion.
+Château Calon - Saint-Georges-Saint-Emilion.
+Château Croix de Thomas Louis Vialard Saint-Georges - Saint-Émilion.
+Château Divon - Saint-Georges-Saint-Emilion.
+Château Griffe de Cap d'Or Saint-Georges - Saint-Émilion.
+Château Haut-Saint-Georges - Saint-Georges-Saint-Emilion.
+Château La Croix Chantecaille Saint-Georges - Saint-Émilion.
+Château La Croix Saint-Georges Saint-Georges - Saint-Émilion Grand Vin de Bordeaux.
+Château Moulin La Bergère - Saint-Georges-Saint-Emilion.
+Château Puy St-Georges - Saint-Georges-Saint-Emilion.
+Château Saint-André Corbin Saint-Georges - Saint-Émilion.
+Château Saint-Georges - Saint-Georges-Saint-Emilion,.
+Château Tour du Pas Saint-Georges - Saint-Georges-Saint-Emilion.
+La Fleur St. Georges - Saint-Georges-Saint-Émilion.
+Château Terre Bleue - Saint-Georges-Saint-Emilion.</t>
         </is>
       </c>
     </row>
